--- a/data/人口.xlsx
+++ b/data/人口.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Azliza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\learning\课题\psir\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68271C56-50AB-435C-B4D6-AEEAA3236874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9835F351-BF80-4305-A7FC-853A73DDF26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="25">
   <si>
     <t>0—4</t>
   </si>
@@ -110,7 +110,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>value</t>
+    <t>rate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>death</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>65—69</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +191,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -239,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -306,6 +320,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,17 +610,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D302"/>
+  <dimension ref="A1:F362"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="V279" sqref="V279"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="H321" sqref="H321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.44140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,6 +633,9 @@
       <c r="C1" t="s">
         <v>22</v>
       </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -5026,7 +5052,7 @@
         <v>2020</v>
       </c>
       <c r="B296" s="17" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C296" s="8">
         <v>22140</v>
@@ -5111,7 +5137,1007 @@
         <v>327158.90568585432</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="1:4" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2021</v>
+      </c>
+      <c r="B302" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C302">
+        <f>(C282+C322)/2</f>
+        <v>357245</v>
+      </c>
+      <c r="D302">
+        <f>(D282+D322)/2</f>
+        <v>84872450</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2021</v>
+      </c>
+      <c r="B303" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <f t="shared" ref="C303:D321" si="0">(C283+C323)/2</f>
+        <v>14218</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="0"/>
+        <v>3383052.5382213332</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>2021</v>
+      </c>
+      <c r="B304" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="0"/>
+        <v>19263.5</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="0"/>
+        <v>4570204.8108161986</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>2021</v>
+      </c>
+      <c r="B305" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="0"/>
+        <v>18329.5</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="0"/>
+        <v>4348601.3576111384</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>2021</v>
+      </c>
+      <c r="B306" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="0"/>
+        <v>14330.5</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="0"/>
+        <v>3391484.2041459568</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>2021</v>
+      </c>
+      <c r="B307" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C307">
+        <f t="shared" si="0"/>
+        <v>16050.5</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="0"/>
+        <v>3815885.1428417414</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>2021</v>
+      </c>
+      <c r="B308" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="0"/>
+        <v>22736</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="0"/>
+        <v>5415516.3885373883</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>2021</v>
+      </c>
+      <c r="B309" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="0"/>
+        <v>31204</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="0"/>
+        <v>7383422.7224996174</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>2021</v>
+      </c>
+      <c r="B310" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310">
+        <f t="shared" si="0"/>
+        <v>24024</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="0"/>
+        <v>5694008.2781711174</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>2021</v>
+      </c>
+      <c r="B311" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C311">
+        <f t="shared" si="0"/>
+        <v>23825.5</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="0"/>
+        <v>5663701.6791062783</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>2021</v>
+      </c>
+      <c r="B312" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C312">
+        <f t="shared" si="0"/>
+        <v>27596.5</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="0"/>
+        <v>6582461.9754853081</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>2021</v>
+      </c>
+      <c r="B313" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C313">
+        <f t="shared" si="0"/>
+        <v>34189.5</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="0"/>
+        <v>8130731.520556232</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>2021</v>
+      </c>
+      <c r="B314" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C314">
+        <f t="shared" si="0"/>
+        <v>29047.5</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="0"/>
+        <v>6874015.9161200188</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>2021</v>
+      </c>
+      <c r="B315" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C315">
+        <f t="shared" si="0"/>
+        <v>21302</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="0"/>
+        <v>5094216.7721500471</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>2021</v>
+      </c>
+      <c r="B316" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C316">
+        <f t="shared" si="0"/>
+        <v>22831</v>
+      </c>
+      <c r="D316">
+        <f t="shared" si="0"/>
+        <v>5427953.5268160347</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>2021</v>
+      </c>
+      <c r="B317" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C317">
+        <f t="shared" si="0"/>
+        <v>15993.5</v>
+      </c>
+      <c r="D317">
+        <f t="shared" si="0"/>
+        <v>3801188.0269116275</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>2021</v>
+      </c>
+      <c r="B318" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C318">
+        <f t="shared" si="0"/>
+        <v>10413.5</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="0"/>
+        <v>2475879.3930498511</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>2021</v>
+      </c>
+      <c r="B319" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C319">
+        <f t="shared" si="0"/>
+        <v>6712.5</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="0"/>
+        <v>1593256.2855630396</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>2021</v>
+      </c>
+      <c r="B320" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C320">
+        <f t="shared" si="0"/>
+        <v>3655.5</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="0"/>
+        <v>866707.01138973411</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>2021</v>
+      </c>
+      <c r="B321" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C321">
+        <f t="shared" si="0"/>
+        <v>1522</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="0"/>
+        <v>360162.45000733784</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>2022</v>
+      </c>
+      <c r="B322" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C322" s="3">
+        <v>373820</v>
+      </c>
+      <c r="D322">
+        <f>C322/C$322*Sheet2!B$32</f>
+        <v>85054000</v>
+      </c>
+      <c r="E322" s="3"/>
+      <c r="F322" s="3"/>
+    </row>
+    <row r="323" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>2022</v>
+      </c>
+      <c r="B323" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C323" s="4">
+        <v>14383</v>
+      </c>
+      <c r="D323">
+        <f>C323/C$322*Sheet2!B$32</f>
+        <v>3272515.3335830076</v>
+      </c>
+      <c r="E323" s="4"/>
+      <c r="F323" s="4"/>
+    </row>
+    <row r="324" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>2022</v>
+      </c>
+      <c r="B324" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C324" s="4">
+        <v>20757</v>
+      </c>
+      <c r="D324">
+        <f>C324/C$322*Sheet2!B$32</f>
+        <v>4722769.990904714</v>
+      </c>
+      <c r="E324" s="4"/>
+      <c r="F324" s="4"/>
+    </row>
+    <row r="325" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>2022</v>
+      </c>
+      <c r="B325" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C325" s="4">
+        <v>19752</v>
+      </c>
+      <c r="D325">
+        <f>C325/C$322*Sheet2!B$32</f>
+        <v>4494105.7407308333</v>
+      </c>
+      <c r="E325" s="4"/>
+      <c r="F325" s="4"/>
+    </row>
+    <row r="326" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>2022</v>
+      </c>
+      <c r="B326" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C326" s="4">
+        <v>16237</v>
+      </c>
+      <c r="D326">
+        <f>C326/C$322*Sheet2!B$32</f>
+        <v>3694349.6816649721</v>
+      </c>
+      <c r="E326" s="4"/>
+      <c r="F326" s="4"/>
+    </row>
+    <row r="327" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>2022</v>
+      </c>
+      <c r="B327" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C327" s="4">
+        <v>16540</v>
+      </c>
+      <c r="D327">
+        <f>C327/C$322*Sheet2!B$32</f>
+        <v>3763290.2466427688</v>
+      </c>
+      <c r="E327" s="4"/>
+      <c r="F327" s="4"/>
+    </row>
+    <row r="328" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>2022</v>
+      </c>
+      <c r="B328" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C328" s="4">
+        <v>22461</v>
+      </c>
+      <c r="D328">
+        <f>C328/C$322*Sheet2!B$32</f>
+        <v>5110475.3464234117</v>
+      </c>
+      <c r="E328" s="4"/>
+      <c r="F328" s="4"/>
+    </row>
+    <row r="329" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>2022</v>
+      </c>
+      <c r="B329" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329" s="4">
+        <v>35486</v>
+      </c>
+      <c r="D329">
+        <f>C329/C$322*Sheet2!B$32</f>
+        <v>8074009.5340003204</v>
+      </c>
+      <c r="E329" s="4"/>
+      <c r="F329" s="4"/>
+    </row>
+    <row r="330" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>2022</v>
+      </c>
+      <c r="B330" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" s="4">
+        <v>26419</v>
+      </c>
+      <c r="D330">
+        <f>C330/C$322*Sheet2!B$32</f>
+        <v>6011025.696859451</v>
+      </c>
+      <c r="E330" s="4"/>
+      <c r="F330" s="4"/>
+    </row>
+    <row r="331" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>2022</v>
+      </c>
+      <c r="B331" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C331" s="4">
+        <v>24612</v>
+      </c>
+      <c r="D331">
+        <f>C331/C$322*Sheet2!B$32</f>
+        <v>5599885.0997806434</v>
+      </c>
+      <c r="E331" s="4"/>
+      <c r="F331" s="4"/>
+    </row>
+    <row r="332" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>2022</v>
+      </c>
+      <c r="B332" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C332" s="4">
+        <v>26388</v>
+      </c>
+      <c r="D332">
+        <f>C332/C$322*Sheet2!B$32</f>
+        <v>6003972.3717297092</v>
+      </c>
+      <c r="E332" s="4"/>
+      <c r="F332" s="4"/>
+    </row>
+    <row r="333" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>2022</v>
+      </c>
+      <c r="B333" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C333" s="4">
+        <v>35001</v>
+      </c>
+      <c r="D333">
+        <f>C333/C$322*Sheet2!B$32</f>
+        <v>7963659.1247124281</v>
+      </c>
+      <c r="E333" s="4"/>
+      <c r="F333" s="4"/>
+    </row>
+    <row r="334" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>2022</v>
+      </c>
+      <c r="B334" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C334" s="4">
+        <v>32952</v>
+      </c>
+      <c r="D334">
+        <f>C334/C$322*Sheet2!B$32</f>
+        <v>7497457.0862982189</v>
+      </c>
+      <c r="E334" s="4"/>
+      <c r="F334" s="4"/>
+    </row>
+    <row r="335" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>2022</v>
+      </c>
+      <c r="B335" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C335" s="4">
+        <v>19121</v>
+      </c>
+      <c r="D335">
+        <f>C335/C$322*Sheet2!B$32</f>
+        <v>4350536.4453480281</v>
+      </c>
+      <c r="E335" s="4"/>
+      <c r="F335" s="4"/>
+    </row>
+    <row r="336" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>2022</v>
+      </c>
+      <c r="B336" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C336" s="4">
+        <v>23522</v>
+      </c>
+      <c r="D336">
+        <f>C336/C$322*Sheet2!B$32</f>
+        <v>5351881.087154245</v>
+      </c>
+      <c r="E336" s="4"/>
+      <c r="F336" s="4"/>
+    </row>
+    <row r="337" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2022</v>
+      </c>
+      <c r="B337" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C337" s="4">
+        <v>16590</v>
+      </c>
+      <c r="D337">
+        <f>C337/C$322*Sheet2!B$32</f>
+        <v>3774666.5774971913</v>
+      </c>
+      <c r="E337" s="4"/>
+      <c r="F337" s="4"/>
+    </row>
+    <row r="338" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>2022</v>
+      </c>
+      <c r="B338" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C338" s="4">
+        <v>10717</v>
+      </c>
+      <c r="D338">
+        <f>C338/C$322*Sheet2!B$32</f>
+        <v>2438402.7553367931</v>
+      </c>
+      <c r="E338" s="4"/>
+      <c r="F338" s="4"/>
+    </row>
+    <row r="339" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>2022</v>
+      </c>
+      <c r="B339" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C339" s="4">
+        <v>7163</v>
+      </c>
+      <c r="D339">
+        <f>C339/C$322*Sheet2!B$32</f>
+        <v>1629773.1582044836</v>
+      </c>
+      <c r="E339" s="4"/>
+      <c r="F339" s="4"/>
+    </row>
+    <row r="340" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>2022</v>
+      </c>
+      <c r="B340" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C340" s="4">
+        <v>3991</v>
+      </c>
+      <c r="D340">
+        <f>C340/C$322*Sheet2!B$32</f>
+        <v>908058.7287999572</v>
+      </c>
+      <c r="E340" s="4"/>
+      <c r="F340" s="4"/>
+    </row>
+    <row r="341" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>2022</v>
+      </c>
+      <c r="B341" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C341" s="5">
+        <v>1728</v>
+      </c>
+      <c r="D341">
+        <f>C341/C$322*Sheet2!B$32</f>
+        <v>393165.99432882137</v>
+      </c>
+      <c r="E341" s="5"/>
+      <c r="F341" s="5"/>
+    </row>
+    <row r="342" spans="1:6" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>2023</v>
+      </c>
+      <c r="B342" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C342" s="23">
+        <v>373581</v>
+      </c>
+      <c r="D342">
+        <f>C342/C$342*Sheet2!B$33</f>
+        <v>85150000</v>
+      </c>
+      <c r="E342" s="23"/>
+      <c r="F342" s="23"/>
+    </row>
+    <row r="343" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>2023</v>
+      </c>
+      <c r="B343" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" s="24">
+        <v>12487</v>
+      </c>
+      <c r="D343">
+        <f>C343/C$342*Sheet2!B$33</f>
+        <v>2846151.3031979678</v>
+      </c>
+      <c r="E343" s="24"/>
+      <c r="F343" s="24"/>
+    </row>
+    <row r="344" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>2023</v>
+      </c>
+      <c r="B344" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C344" s="24">
+        <v>19830</v>
+      </c>
+      <c r="D344">
+        <f>C344/C$342*Sheet2!B$33</f>
+        <v>4519835.0558513412</v>
+      </c>
+      <c r="E344" s="24"/>
+      <c r="F344" s="24"/>
+    </row>
+    <row r="345" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>2023</v>
+      </c>
+      <c r="B345" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C345" s="24">
+        <v>20213</v>
+      </c>
+      <c r="D345">
+        <f>C345/C$342*Sheet2!B$33</f>
+        <v>4607131.9205205832</v>
+      </c>
+      <c r="E345" s="24"/>
+      <c r="F345" s="24"/>
+    </row>
+    <row r="346" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>2023</v>
+      </c>
+      <c r="B346" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C346" s="24">
+        <v>17008</v>
+      </c>
+      <c r="D346">
+        <f>C346/C$342*Sheet2!B$33</f>
+        <v>3876618.9929359364</v>
+      </c>
+      <c r="E346" s="24"/>
+      <c r="F346" s="24"/>
+    </row>
+    <row r="347" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2023</v>
+      </c>
+      <c r="B347" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" s="24">
+        <v>15908</v>
+      </c>
+      <c r="D347">
+        <f>C347/C$342*Sheet2!B$33</f>
+        <v>3625896.9273062604</v>
+      </c>
+      <c r="E347" s="24"/>
+      <c r="F347" s="24"/>
+    </row>
+    <row r="348" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>2023</v>
+      </c>
+      <c r="B348" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C348" s="24">
+        <v>20862</v>
+      </c>
+      <c r="D348">
+        <f>C348/C$342*Sheet2!B$33</f>
+        <v>4755057.939242092</v>
+      </c>
+      <c r="E348" s="24"/>
+      <c r="F348" s="24"/>
+    </row>
+    <row r="349" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>2023</v>
+      </c>
+      <c r="B349" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C349" s="24">
+        <v>33156</v>
+      </c>
+      <c r="D349">
+        <f>C349/C$342*Sheet2!B$33</f>
+        <v>7557218.9163795803</v>
+      </c>
+      <c r="E349" s="24"/>
+      <c r="F349" s="24"/>
+    </row>
+    <row r="350" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>2023</v>
+      </c>
+      <c r="B350" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350" s="24">
+        <v>27876</v>
+      </c>
+      <c r="D350">
+        <f>C350/C$342*Sheet2!B$33</f>
+        <v>6353753.0013571354</v>
+      </c>
+      <c r="E350" s="24"/>
+      <c r="F350" s="24"/>
+    </row>
+    <row r="351" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>2023</v>
+      </c>
+      <c r="B351" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C351" s="24">
+        <v>25291</v>
+      </c>
+      <c r="D351">
+        <f>C351/C$342*Sheet2!B$33</f>
+        <v>5764556.1471273964</v>
+      </c>
+      <c r="E351" s="24"/>
+      <c r="F351" s="24"/>
+    </row>
+    <row r="352" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>2023</v>
+      </c>
+      <c r="B352" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C352" s="24">
+        <v>25160</v>
+      </c>
+      <c r="D352">
+        <f>C352/C$342*Sheet2!B$33</f>
+        <v>5734697.4284024071</v>
+      </c>
+      <c r="E352" s="24"/>
+      <c r="F352" s="24"/>
+    </row>
+    <row r="353" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>2023</v>
+      </c>
+      <c r="B353" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C353" s="24">
+        <v>34476</v>
+      </c>
+      <c r="D353">
+        <f>C353/C$342*Sheet2!B$33</f>
+        <v>7858085.3951351922</v>
+      </c>
+      <c r="E353" s="24"/>
+      <c r="F353" s="24"/>
+    </row>
+    <row r="354" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>2023</v>
+      </c>
+      <c r="B354" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C354" s="24">
+        <v>32862</v>
+      </c>
+      <c r="D354">
+        <f>C354/C$342*Sheet2!B$33</f>
+        <v>7490207.7461112849</v>
+      </c>
+      <c r="E354" s="24"/>
+      <c r="F354" s="24"/>
+    </row>
+    <row r="355" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>2023</v>
+      </c>
+      <c r="B355" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C355" s="24">
+        <v>15629</v>
+      </c>
+      <c r="D355">
+        <f>C355/C$342*Sheet2!B$33</f>
+        <v>3562304.6942965514</v>
+      </c>
+      <c r="E355" s="24"/>
+      <c r="F355" s="24"/>
+    </row>
+    <row r="356" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>2023</v>
+      </c>
+      <c r="B356" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C356" s="24">
+        <v>30196</v>
+      </c>
+      <c r="D356">
+        <f>C356/C$342*Sheet2!B$33</f>
+        <v>6882548.6306851795</v>
+      </c>
+      <c r="E356" s="24"/>
+      <c r="F356" s="24"/>
+    </row>
+    <row r="357" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>2023</v>
+      </c>
+      <c r="B357" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C357" s="24">
+        <v>17844</v>
+      </c>
+      <c r="D357">
+        <f>C357/C$342*Sheet2!B$33</f>
+        <v>4067167.7628144901</v>
+      </c>
+      <c r="E357" s="24"/>
+      <c r="F357" s="24"/>
+    </row>
+    <row r="358" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>2023</v>
+      </c>
+      <c r="B358" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C358" s="24">
+        <v>11424</v>
+      </c>
+      <c r="D358">
+        <f>C358/C$342*Sheet2!B$33</f>
+        <v>2603862.616139472</v>
+      </c>
+      <c r="E358" s="24"/>
+      <c r="F358" s="24"/>
+    </row>
+    <row r="359" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>2023</v>
+      </c>
+      <c r="B359" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C359" s="24">
+        <v>7387</v>
+      </c>
+      <c r="D359">
+        <f>C359/C$342*Sheet2!B$33</f>
+        <v>1683712.6352785607</v>
+      </c>
+      <c r="E359" s="24"/>
+      <c r="F359" s="24"/>
+    </row>
+    <row r="360" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>2023</v>
+      </c>
+      <c r="B360" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C360" s="24">
+        <v>4171</v>
+      </c>
+      <c r="D360">
+        <f>C360/C$342*Sheet2!B$33</f>
+        <v>950692.4870376169</v>
+      </c>
+      <c r="E360" s="24"/>
+      <c r="F360" s="24"/>
+    </row>
+    <row r="361" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>2023</v>
+      </c>
+      <c r="B361" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C361" s="25">
+        <v>1801</v>
+      </c>
+      <c r="D361">
+        <f>C361/C$342*Sheet2!B$33</f>
+        <v>410500.4001809514</v>
+      </c>
+      <c r="E361" s="25"/>
+      <c r="F361" s="25"/>
+    </row>
+    <row r="362" spans="1:6" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:C301" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
